--- a/ParameterNameList/parameterList_task_TMT.xlsx
+++ b/ParameterNameList/parameterList_task_TMT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Masud_OxfordCognition\Project03_Plasma_AD\OxCog_analysis_Plasma\ParameterNameList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Masud_OxfordCognition\Project13_ECT\OxCog_analysis_ECT\ParameterNameList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809284EF-A54F-4B7B-9608-9F26CBF8070D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F60CF6C-13F5-4C58-A62A-44E30123F2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2256" windowWidth="25068" windowHeight="11556" activeTab="1" xr2:uid="{837278C6-3617-4250-9B66-D7B6D4290612}"/>
+    <workbookView xWindow="7380" yWindow="4104" windowWidth="17172" windowHeight="12120" xr2:uid="{837278C6-3617-4250-9B66-D7B6D4290612}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>plist</t>
   </si>
@@ -62,12 +62,6 @@
     <t>num</t>
   </si>
   <si>
-    <t>Time taken to complete Trail A (s)</t>
-  </si>
-  <si>
-    <t>Time taken to complete Trail B (s)</t>
-  </si>
-  <si>
     <t>TMT_A</t>
   </si>
   <si>
@@ -90,23 +84,19 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>testTime_tmt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,9 +122,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF998BC-F593-453E-8910-6810F0F85F12}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,27 +454,32 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -496,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A1013E-55B4-406E-B5BE-646F8C58D7EB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -519,7 +513,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -530,7 +524,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -541,10 +535,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -552,7 +546,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -563,7 +557,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -583,7 +577,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,15 +599,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -624,7 +618,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -635,10 +629,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -646,7 +640,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -657,7 +651,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
